--- a/data/pca/factorExposure/factorExposure_2009-12-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.004138834933511843</v>
+        <v>0.01680904902029505</v>
       </c>
       <c r="C2">
-        <v>-0.01075594166173649</v>
+        <v>-0.001042251571610947</v>
       </c>
       <c r="D2">
-        <v>0.00368574652036224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007425011017903748</v>
+      </c>
+      <c r="E2">
+        <v>-0.0002431181855958977</v>
+      </c>
+      <c r="F2">
+        <v>-0.01138652614115749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03234627401103835</v>
+        <v>0.09358537609712714</v>
       </c>
       <c r="C4">
-        <v>-0.1160016049755245</v>
+        <v>-0.01515240880290773</v>
       </c>
       <c r="D4">
-        <v>-0.02721853914953975</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08408906506560387</v>
+      </c>
+      <c r="E4">
+        <v>-0.02818329268908508</v>
+      </c>
+      <c r="F4">
+        <v>0.03113413870121182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.04287305385334034</v>
+        <v>0.1578282294831404</v>
       </c>
       <c r="C6">
-        <v>-0.1218477341711712</v>
+        <v>-0.02538560321001516</v>
       </c>
       <c r="D6">
-        <v>0.04221691445854295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02135128083052084</v>
+      </c>
+      <c r="E6">
+        <v>-0.01124141929571606</v>
+      </c>
+      <c r="F6">
+        <v>0.04619673163796589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01310987646596954</v>
+        <v>0.06246982265788335</v>
       </c>
       <c r="C7">
-        <v>-0.08525569900822504</v>
+        <v>0.001822300024578754</v>
       </c>
       <c r="D7">
-        <v>0.00461303783426322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05360659742815712</v>
+      </c>
+      <c r="E7">
+        <v>-0.01011871761416262</v>
+      </c>
+      <c r="F7">
+        <v>0.04765150640539666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001316421157575589</v>
+        <v>0.0569961408730883</v>
       </c>
       <c r="C8">
-        <v>-0.07038304128255345</v>
+        <v>0.01388384388154142</v>
       </c>
       <c r="D8">
-        <v>0.02927161011887174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03420714992232023</v>
+      </c>
+      <c r="E8">
+        <v>-0.01757953159536742</v>
+      </c>
+      <c r="F8">
+        <v>-0.02784363913753224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02803209963425833</v>
+        <v>0.07098764208478743</v>
       </c>
       <c r="C9">
-        <v>-0.09797098455524191</v>
+        <v>-0.01070561683790907</v>
       </c>
       <c r="D9">
-        <v>-0.02904467517244398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08671878839432139</v>
+      </c>
+      <c r="E9">
+        <v>-0.02308499612400125</v>
+      </c>
+      <c r="F9">
+        <v>0.0476255355102764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01239037416025092</v>
+        <v>0.09580018966308926</v>
       </c>
       <c r="C10">
-        <v>-0.02670150949694452</v>
+        <v>-0.02090948125155596</v>
       </c>
       <c r="D10">
-        <v>0.1220181464332814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1707425960166299</v>
+      </c>
+      <c r="E10">
+        <v>0.03557342854652294</v>
+      </c>
+      <c r="F10">
+        <v>-0.05403147623658425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03259734252014389</v>
+        <v>0.08759675283532364</v>
       </c>
       <c r="C11">
-        <v>-0.1010812820191809</v>
+        <v>-0.01027795296567929</v>
       </c>
       <c r="D11">
-        <v>-0.03626332447755561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1161458661019875</v>
+      </c>
+      <c r="E11">
+        <v>-0.04572816117733972</v>
+      </c>
+      <c r="F11">
+        <v>0.02204550996688733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03029187669969965</v>
+        <v>0.09172473129236541</v>
       </c>
       <c r="C12">
-        <v>-0.1116582004204913</v>
+        <v>-0.007419191147199528</v>
       </c>
       <c r="D12">
-        <v>-0.03234457651486418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320333405329715</v>
+      </c>
+      <c r="E12">
+        <v>-0.04766116300916853</v>
+      </c>
+      <c r="F12">
+        <v>0.02673543794361626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01103701993320564</v>
+        <v>0.04155027566910775</v>
       </c>
       <c r="C13">
-        <v>-0.04072710122727613</v>
+        <v>-0.002926306462774971</v>
       </c>
       <c r="D13">
-        <v>-0.02150340250519702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0522926133383036</v>
+      </c>
+      <c r="E13">
+        <v>0.008396987804991245</v>
+      </c>
+      <c r="F13">
+        <v>0.003336423912892758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01748450746043364</v>
+        <v>0.02256074218845014</v>
       </c>
       <c r="C14">
-        <v>-0.02423571395663222</v>
+        <v>-0.01370978963386785</v>
       </c>
       <c r="D14">
-        <v>0.00263266641732367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03325673513477109</v>
+      </c>
+      <c r="E14">
+        <v>-0.01738096532187414</v>
+      </c>
+      <c r="F14">
+        <v>0.01370908075242777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01178362519953194</v>
+        <v>0.03292269410256735</v>
       </c>
       <c r="C15">
-        <v>-0.02903173910592124</v>
+        <v>-0.004673124192049879</v>
       </c>
       <c r="D15">
-        <v>-0.007219668033486625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04505770422656606</v>
+      </c>
+      <c r="E15">
+        <v>-0.005954229339695873</v>
+      </c>
+      <c r="F15">
+        <v>0.02284749038212499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.02211247047661231</v>
+        <v>0.07412328346269194</v>
       </c>
       <c r="C16">
-        <v>-0.1032901344029281</v>
+        <v>-0.001392317488778819</v>
       </c>
       <c r="D16">
-        <v>-0.02437393432447499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1253641603210448</v>
+      </c>
+      <c r="E16">
+        <v>-0.06142477267707896</v>
+      </c>
+      <c r="F16">
+        <v>0.02442517014587908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03212763923993236</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003473647508738439</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0194869705713699</v>
+      </c>
+      <c r="E18">
+        <v>0.007526574821520315</v>
+      </c>
+      <c r="F18">
+        <v>-0.003988770344338573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01454955023712697</v>
+        <v>0.06107432457215119</v>
       </c>
       <c r="C20">
-        <v>-0.06312956023699955</v>
+        <v>-6.078839799743063e-05</v>
       </c>
       <c r="D20">
-        <v>0.003670073519705814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07701619866508291</v>
+      </c>
+      <c r="E20">
+        <v>-0.0552558121659678</v>
+      </c>
+      <c r="F20">
+        <v>0.02288935603246596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01415749055667561</v>
+        <v>0.04042765080170584</v>
       </c>
       <c r="C21">
-        <v>-0.0257240154811673</v>
+        <v>-0.006245982844985098</v>
       </c>
       <c r="D21">
-        <v>-0.001622235474034971</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03770721449329553</v>
+      </c>
+      <c r="E21">
+        <v>0.005483123806080079</v>
+      </c>
+      <c r="F21">
+        <v>-0.02398511776742297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.005047815305536578</v>
+        <v>0.04383253246857505</v>
       </c>
       <c r="C22">
-        <v>-0.02893629164945687</v>
+        <v>-0.0006885614897257672</v>
       </c>
       <c r="D22">
-        <v>0.03257168615445057</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004044093974777341</v>
+      </c>
+      <c r="E22">
+        <v>-0.03011396575437365</v>
+      </c>
+      <c r="F22">
+        <v>-0.03630877412428768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.005035589101340648</v>
+        <v>0.04381814764289941</v>
       </c>
       <c r="C23">
-        <v>-0.0288766275922578</v>
+        <v>-0.0006842622189137235</v>
       </c>
       <c r="D23">
-        <v>0.03264908441740687</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004048754103763636</v>
+      </c>
+      <c r="E23">
+        <v>-0.03031535407548028</v>
+      </c>
+      <c r="F23">
+        <v>-0.03627199921506375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0221681963072297</v>
+        <v>0.08024869045091997</v>
       </c>
       <c r="C24">
-        <v>-0.108030910013715</v>
+        <v>-0.001882615452083789</v>
       </c>
       <c r="D24">
-        <v>-0.03021181182825735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1202657929135851</v>
+      </c>
+      <c r="E24">
+        <v>-0.04857300566831911</v>
+      </c>
+      <c r="F24">
+        <v>0.02624457794692145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02758793469012037</v>
+        <v>0.08485364505931645</v>
       </c>
       <c r="C25">
-        <v>-0.1060625434090789</v>
+        <v>-0.004136075830102295</v>
       </c>
       <c r="D25">
-        <v>-0.02857735753703154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1092807247575066</v>
+      </c>
+      <c r="E25">
+        <v>-0.03242708153637101</v>
+      </c>
+      <c r="F25">
+        <v>0.02686627527643569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02588879688463746</v>
+        <v>0.05828699291776899</v>
       </c>
       <c r="C26">
-        <v>-0.05048668781580943</v>
+        <v>-0.01438306938437895</v>
       </c>
       <c r="D26">
-        <v>0.01477645641663313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0398679634447443</v>
+      </c>
+      <c r="E26">
+        <v>-0.02801396909476419</v>
+      </c>
+      <c r="F26">
+        <v>-0.00906164333191985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.00951987981306021</v>
+        <v>0.1407914036514679</v>
       </c>
       <c r="C28">
-        <v>-0.04631152273582485</v>
+        <v>-0.0203481666818611</v>
       </c>
       <c r="D28">
-        <v>0.2032567433241023</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2615034916952704</v>
+      </c>
+      <c r="E28">
+        <v>0.06721898506852139</v>
+      </c>
+      <c r="F28">
+        <v>0.009963615474245902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01382471622431909</v>
+        <v>0.02778241013199508</v>
       </c>
       <c r="C29">
-        <v>-0.02801019128783806</v>
+        <v>-0.008123735059908219</v>
       </c>
       <c r="D29">
-        <v>0.00591788598523011</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03197904296962974</v>
+      </c>
+      <c r="E29">
+        <v>-0.01132181617335195</v>
+      </c>
+      <c r="F29">
+        <v>-0.01128875149418288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.02004107299239692</v>
+        <v>0.06111259129532119</v>
       </c>
       <c r="C30">
-        <v>-0.1292611776939401</v>
+        <v>-0.003070419851601749</v>
       </c>
       <c r="D30">
-        <v>-0.02199344874873857</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08927995274165813</v>
+      </c>
+      <c r="E30">
+        <v>-0.01920068902888943</v>
+      </c>
+      <c r="F30">
+        <v>0.0832889004675067</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02230037236820616</v>
+        <v>0.04981413417795191</v>
       </c>
       <c r="C31">
-        <v>-0.03502555441729764</v>
+        <v>-0.0150984285205389</v>
       </c>
       <c r="D31">
-        <v>0.0006734366631454592</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02514816036792101</v>
+      </c>
+      <c r="E31">
+        <v>-0.02755623815986929</v>
+      </c>
+      <c r="F31">
+        <v>-0.002372069108674518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.009128233348353932</v>
+        <v>0.0502239300865709</v>
       </c>
       <c r="C32">
-        <v>-0.05608866783317068</v>
+        <v>0.00168269350538816</v>
       </c>
       <c r="D32">
-        <v>0.02303534870601253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03622167061510576</v>
+      </c>
+      <c r="E32">
+        <v>-0.03114234198455544</v>
+      </c>
+      <c r="F32">
+        <v>0.003184770370692802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02578703086974688</v>
+        <v>0.08939609786890296</v>
       </c>
       <c r="C33">
-        <v>-0.1093652698370506</v>
+        <v>-0.007459235806376305</v>
       </c>
       <c r="D33">
-        <v>-0.0266896794367957</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09917493519118037</v>
+      </c>
+      <c r="E33">
+        <v>-0.0434272334296122</v>
+      </c>
+      <c r="F33">
+        <v>0.03513820273807685</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.03131631228591102</v>
+        <v>0.06796558773819192</v>
       </c>
       <c r="C34">
-        <v>-0.09593446352890653</v>
+        <v>-0.01037184007478216</v>
       </c>
       <c r="D34">
-        <v>-0.02177313579453706</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1070768019825966</v>
+      </c>
+      <c r="E34">
+        <v>-0.0342495874067032</v>
+      </c>
+      <c r="F34">
+        <v>0.0335965148990269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.004320720050093753</v>
+        <v>0.02430253488339532</v>
       </c>
       <c r="C35">
-        <v>-0.01457965788957758</v>
+        <v>-0.002368481583636833</v>
       </c>
       <c r="D35">
-        <v>-0.001804686449564291</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01164756969756774</v>
+      </c>
+      <c r="E35">
+        <v>-0.01167039958620884</v>
+      </c>
+      <c r="F35">
+        <v>0.0009636664402343315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01219337312773144</v>
+        <v>0.02793125729808814</v>
       </c>
       <c r="C36">
-        <v>-0.02348531651543469</v>
+        <v>-0.007040671655006462</v>
       </c>
       <c r="D36">
-        <v>-0.009487745639379002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03926013554477659</v>
+      </c>
+      <c r="E36">
+        <v>-0.01637215815836271</v>
+      </c>
+      <c r="F36">
+        <v>0.01518767149550694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0004151942480285665</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>7.871560871370139e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004940898512809071</v>
+      </c>
+      <c r="E37">
+        <v>0.0005454849422688333</v>
+      </c>
+      <c r="F37">
+        <v>0.0005590633716391733</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0006519336836097474</v>
+        <v>0.001544590361168209</v>
       </c>
       <c r="C38">
-        <v>-0.004093617608766475</v>
+        <v>-0.0002629532539778464</v>
       </c>
       <c r="D38">
-        <v>0.002849282338217997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0003589406903569612</v>
+      </c>
+      <c r="E38">
+        <v>-0.0003404541929261833</v>
+      </c>
+      <c r="F38">
+        <v>-0.0008427063721418844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04557079742953889</v>
+        <v>0.1050963936905348</v>
       </c>
       <c r="C39">
-        <v>-0.1599101159393066</v>
+        <v>-0.01542351784757741</v>
       </c>
       <c r="D39">
-        <v>-0.04910215359947094</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1541269640447284</v>
+      </c>
+      <c r="E39">
+        <v>-0.05892850787326941</v>
+      </c>
+      <c r="F39">
+        <v>0.02905893333955265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01216461683405318</v>
+        <v>0.04130126697658554</v>
       </c>
       <c r="C40">
-        <v>-0.01294261998942576</v>
+        <v>-0.006668665645371727</v>
       </c>
       <c r="D40">
-        <v>0.01004498761496739</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03234600175768633</v>
+      </c>
+      <c r="E40">
+        <v>-0.002947335252972486</v>
+      </c>
+      <c r="F40">
+        <v>-0.0159361690285401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01172418284952569</v>
+        <v>0.02784368020469046</v>
       </c>
       <c r="C41">
-        <v>-0.01796972513521806</v>
+        <v>-0.006718065948806997</v>
       </c>
       <c r="D41">
-        <v>0.01385780438250969</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01040809332491467</v>
+      </c>
+      <c r="E41">
+        <v>-0.01242941865101115</v>
+      </c>
+      <c r="F41">
+        <v>-0.006418532257883541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01394512649245024</v>
+        <v>0.04068290472036622</v>
       </c>
       <c r="C43">
-        <v>-0.02778649275996374</v>
+        <v>-0.006777100544048834</v>
       </c>
       <c r="D43">
-        <v>0.008894554380664769</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01970925758520292</v>
+      </c>
+      <c r="E43">
+        <v>-0.02459735291187531</v>
+      </c>
+      <c r="F43">
+        <v>-0.01277388511843097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0415121347812896</v>
+        <v>0.07989147440133176</v>
       </c>
       <c r="C44">
-        <v>-0.1328420470479297</v>
+        <v>-0.01965818077714656</v>
       </c>
       <c r="D44">
-        <v>-0.002160032299460079</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09744778156177722</v>
+      </c>
+      <c r="E44">
+        <v>-0.06452302050789548</v>
+      </c>
+      <c r="F44">
+        <v>0.1561968698927305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005498520572740421</v>
+        <v>0.02343198058868689</v>
       </c>
       <c r="C46">
-        <v>-0.005970943066675361</v>
+        <v>-0.003445685877263672</v>
       </c>
       <c r="D46">
-        <v>0.02120083062937788</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01312368195799311</v>
+      </c>
+      <c r="E46">
+        <v>-0.0220882340404801</v>
+      </c>
+      <c r="F46">
+        <v>-0.005885203482908212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01169560974713918</v>
+        <v>0.05135260202622165</v>
       </c>
       <c r="C47">
-        <v>-0.03377777113289116</v>
+        <v>-0.003265304387857444</v>
       </c>
       <c r="D47">
-        <v>0.03268707992904191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0139447874286991</v>
+      </c>
+      <c r="E47">
+        <v>-0.02336482902309866</v>
+      </c>
+      <c r="F47">
+        <v>-0.03358008586068758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01370222150380537</v>
+        <v>0.04999453069831403</v>
       </c>
       <c r="C48">
-        <v>-0.04930578299624878</v>
+        <v>-0.002353646587418125</v>
       </c>
       <c r="D48">
-        <v>-0.01833405605008109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04948295112928274</v>
+      </c>
+      <c r="E48">
+        <v>0.006614280947281784</v>
+      </c>
+      <c r="F48">
+        <v>0.009702592209874411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.0442308755034198</v>
+        <v>0.1999863843247275</v>
       </c>
       <c r="C49">
-        <v>-0.2204455824909042</v>
+        <v>-0.01855418550280234</v>
       </c>
       <c r="D49">
-        <v>0.06093818531287574</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007446048303566322</v>
+      </c>
+      <c r="E49">
+        <v>-0.0309510329198396</v>
+      </c>
+      <c r="F49">
+        <v>0.03964132391414939</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01916302715711299</v>
+        <v>0.0507274531965465</v>
       </c>
       <c r="C50">
-        <v>-0.03923273846087216</v>
+        <v>-0.01119022574876847</v>
       </c>
       <c r="D50">
-        <v>0.007617474875580371</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02341045334104213</v>
+      </c>
+      <c r="E50">
+        <v>-0.02932650448414678</v>
+      </c>
+      <c r="F50">
+        <v>0.009316628737100792</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0001345891115862726</v>
+        <v>0.0001735213177605323</v>
       </c>
       <c r="C51">
-        <v>-0.0001466140452950795</v>
+        <v>-5.365381585862223e-05</v>
       </c>
       <c r="D51">
-        <v>0.0004248778303044216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0002519234110515089</v>
+      </c>
+      <c r="E51">
+        <v>0.0004220799055086818</v>
+      </c>
+      <c r="F51">
+        <v>0.002192015000395221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03468335298783607</v>
+        <v>0.1461459198275732</v>
       </c>
       <c r="C52">
-        <v>-0.1514185541585755</v>
+        <v>-0.01542664418725898</v>
       </c>
       <c r="D52">
-        <v>-0.02211467457334655</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04509126496467743</v>
+      </c>
+      <c r="E52">
+        <v>-0.02056158029461861</v>
+      </c>
+      <c r="F52">
+        <v>0.04143122889318786</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03649172483147683</v>
+        <v>0.1719960432842344</v>
       </c>
       <c r="C53">
-        <v>-0.1723037382453043</v>
+        <v>-0.01861795731847924</v>
       </c>
       <c r="D53">
-        <v>0.009931280278723836</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006530342020796465</v>
+      </c>
+      <c r="E53">
+        <v>-0.03155887723620599</v>
+      </c>
+      <c r="F53">
+        <v>0.07230727038420853</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01721385089960377</v>
+        <v>0.02307580029657979</v>
       </c>
       <c r="C54">
-        <v>-0.03763367946492018</v>
+        <v>-0.01242761414818668</v>
       </c>
       <c r="D54">
-        <v>0.003325840693121782</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03334519512848519</v>
+      </c>
+      <c r="E54">
+        <v>-0.01802975472520976</v>
+      </c>
+      <c r="F54">
+        <v>-0.003385001243402057</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02752560644933815</v>
+        <v>0.1137997432547866</v>
       </c>
       <c r="C55">
-        <v>-0.09030809486684457</v>
+        <v>-0.01627198160920053</v>
       </c>
       <c r="D55">
-        <v>0.0009205626207687483</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01002936590501751</v>
+      </c>
+      <c r="E55">
+        <v>-0.02830107862882501</v>
+      </c>
+      <c r="F55">
+        <v>0.04671006955519148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03570647642138521</v>
+        <v>0.1766100580265478</v>
       </c>
       <c r="C56">
-        <v>-0.1579912605275772</v>
+        <v>-0.01611269735602157</v>
       </c>
       <c r="D56">
-        <v>0.02121802209524412</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001546880454045024</v>
+      </c>
+      <c r="E56">
+        <v>-0.03582498274429327</v>
+      </c>
+      <c r="F56">
+        <v>0.05062543297507392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01375254135073985</v>
+        <v>0.04611796747068386</v>
       </c>
       <c r="C58">
-        <v>-0.04981943144545736</v>
+        <v>-0.0003067896906581207</v>
       </c>
       <c r="D58">
-        <v>-0.01360214171543232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06740668297345177</v>
+      </c>
+      <c r="E58">
+        <v>-0.02686957197818069</v>
+      </c>
+      <c r="F58">
+        <v>-0.03602558711340181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01716983869970639</v>
+        <v>0.1682407393016495</v>
       </c>
       <c r="C59">
-        <v>-0.1002411211684553</v>
+        <v>-0.02090729140103397</v>
       </c>
       <c r="D59">
-        <v>0.2135286844071301</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2177321968812782</v>
+      </c>
+      <c r="E59">
+        <v>0.04565858228373239</v>
+      </c>
+      <c r="F59">
+        <v>-0.03438008339091934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.03246980643428711</v>
+        <v>0.2312496641985357</v>
       </c>
       <c r="C60">
-        <v>-0.2714279083945299</v>
+        <v>0.003115663586859955</v>
       </c>
       <c r="D60">
-        <v>-0.002771962970226136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04271786214627311</v>
+      </c>
+      <c r="E60">
+        <v>-0.01144721175864751</v>
+      </c>
+      <c r="F60">
+        <v>-0.006424575141452487</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03243618280843603</v>
+        <v>0.08179195206930717</v>
       </c>
       <c r="C61">
-        <v>-0.1202022657767713</v>
+        <v>-0.01144477108945511</v>
       </c>
       <c r="D61">
-        <v>-0.01966469878737919</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1164683337638751</v>
+      </c>
+      <c r="E61">
+        <v>-0.03837059684246605</v>
+      </c>
+      <c r="F61">
+        <v>0.01153243881374517</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.0384149236388588</v>
+        <v>0.1705240315100093</v>
       </c>
       <c r="C62">
-        <v>-0.1615910452697177</v>
+        <v>-0.01957521107767339</v>
       </c>
       <c r="D62">
-        <v>0.0147344015226486</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006886640278910842</v>
+      </c>
+      <c r="E62">
+        <v>-0.0352867318933097</v>
+      </c>
+      <c r="F62">
+        <v>0.03278947514245469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01312453716961431</v>
+        <v>0.0459060330045624</v>
       </c>
       <c r="C63">
-        <v>-0.05106720822610178</v>
+        <v>-0.001835554329083694</v>
       </c>
       <c r="D63">
-        <v>-0.01343607455441436</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05820603489310872</v>
+      </c>
+      <c r="E63">
+        <v>-0.02131742401936558</v>
+      </c>
+      <c r="F63">
+        <v>0.005555781246719987</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02610524235002273</v>
+        <v>0.1105870794163508</v>
       </c>
       <c r="C64">
-        <v>-0.09465977610602704</v>
+        <v>-0.01095359744740492</v>
       </c>
       <c r="D64">
-        <v>0.006506365645861564</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04309043863794707</v>
+      </c>
+      <c r="E64">
+        <v>-0.02435383572156022</v>
+      </c>
+      <c r="F64">
+        <v>0.02607054490744949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.04388408984326241</v>
+        <v>0.1476305926586374</v>
       </c>
       <c r="C65">
-        <v>-0.1123068515629167</v>
+        <v>-0.03256636103711094</v>
       </c>
       <c r="D65">
-        <v>0.03189276280958052</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04051251390510675</v>
+      </c>
+      <c r="E65">
+        <v>-0.004826551499119042</v>
+      </c>
+      <c r="F65">
+        <v>0.03971978969883629</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04481062574551056</v>
+        <v>0.1246139035081369</v>
       </c>
       <c r="C66">
-        <v>-0.188563717410225</v>
+        <v>-0.01351392185385421</v>
       </c>
       <c r="D66">
-        <v>-0.0455199847623853</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.142537918984861</v>
+      </c>
+      <c r="E66">
+        <v>-0.06624314991203893</v>
+      </c>
+      <c r="F66">
+        <v>0.03145413806160316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01453769276174756</v>
+        <v>0.06064869470200395</v>
       </c>
       <c r="C67">
-        <v>-0.07320726969151325</v>
+        <v>-0.003097144384574532</v>
       </c>
       <c r="D67">
-        <v>-0.01158863670599406</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05540892604823294</v>
+      </c>
+      <c r="E67">
+        <v>-0.01742329960680378</v>
+      </c>
+      <c r="F67">
+        <v>-0.03396062959593062</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01855577970846691</v>
+        <v>0.1169882728610536</v>
       </c>
       <c r="C68">
-        <v>-0.02930325715560525</v>
+        <v>-0.03141793729445806</v>
       </c>
       <c r="D68">
-        <v>0.1785087727000474</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2615198377136198</v>
+      </c>
+      <c r="E68">
+        <v>0.08672573537982567</v>
+      </c>
+      <c r="F68">
+        <v>0.005620321846991381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.006896607491657766</v>
+        <v>0.03988203055034532</v>
       </c>
       <c r="C69">
-        <v>-0.03582904526066408</v>
+        <v>-0.001345350019437498</v>
       </c>
       <c r="D69">
-        <v>0.01240596534877318</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.006939484067564335</v>
+      </c>
+      <c r="E69">
+        <v>-0.02266193040902881</v>
+      </c>
+      <c r="F69">
+        <v>-0.0005442692622043226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.01962129268839252</v>
+        <v>0.0657152069420593</v>
       </c>
       <c r="C70">
-        <v>-0.00824728308124122</v>
+        <v>0.02799923667468323</v>
       </c>
       <c r="D70">
-        <v>-0.003168121589146456</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02484567301822219</v>
+      </c>
+      <c r="E70">
+        <v>0.03932271737520093</v>
+      </c>
+      <c r="F70">
+        <v>-0.1849846880751019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02301205805782103</v>
+        <v>0.1369406005495645</v>
       </c>
       <c r="C71">
-        <v>-0.04085782787658406</v>
+        <v>-0.03573283387262682</v>
       </c>
       <c r="D71">
-        <v>0.1919175412089691</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2732965429217385</v>
+      </c>
+      <c r="E71">
+        <v>0.09602461287833981</v>
+      </c>
+      <c r="F71">
+        <v>0.01213021613210724</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.04037556884415442</v>
+        <v>0.1420119506672823</v>
       </c>
       <c r="C72">
-        <v>-0.1249962698831292</v>
+        <v>-0.02589428130787523</v>
       </c>
       <c r="D72">
-        <v>0.03669252819685735</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001137014829223975</v>
+      </c>
+      <c r="E72">
+        <v>-0.0381583079663679</v>
+      </c>
+      <c r="F72">
+        <v>0.0333077592322838</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03909003354999824</v>
+        <v>0.2008730282834256</v>
       </c>
       <c r="C73">
-        <v>-0.2092261216092215</v>
+        <v>-0.01207806386978645</v>
       </c>
       <c r="D73">
-        <v>0.04568702966910896</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0175665866359462</v>
+      </c>
+      <c r="E73">
+        <v>-0.0636990610159911</v>
+      </c>
+      <c r="F73">
+        <v>0.03857341103302667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02408081656956916</v>
+        <v>0.09437246970434407</v>
       </c>
       <c r="C74">
-        <v>-0.1123845647401612</v>
+        <v>-0.01307786543027596</v>
       </c>
       <c r="D74">
-        <v>0.02581804854759603</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01715906634103312</v>
+      </c>
+      <c r="E74">
+        <v>-0.04380514232540233</v>
+      </c>
+      <c r="F74">
+        <v>0.05640348791840927</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04570726227888243</v>
+        <v>0.127901965570467</v>
       </c>
       <c r="C75">
-        <v>-0.1348446309952271</v>
+        <v>-0.02753574619925774</v>
       </c>
       <c r="D75">
-        <v>0.02728249542661926</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0305642122780438</v>
+      </c>
+      <c r="E75">
+        <v>-0.05830416540378842</v>
+      </c>
+      <c r="F75">
+        <v>0.01823403164319445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0001407027393650258</v>
+        <v>0.000327250996617411</v>
       </c>
       <c r="C76">
-        <v>-0.001058709151800108</v>
+        <v>-0.0001104211378228934</v>
       </c>
       <c r="D76">
-        <v>0.001214804422504017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0003754038485873398</v>
+      </c>
+      <c r="E76">
+        <v>5.530382067695725e-05</v>
+      </c>
+      <c r="F76">
+        <v>0.0004208659482024342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02794004765148373</v>
+        <v>0.08704966565914517</v>
       </c>
       <c r="C77">
-        <v>-0.1028877183331796</v>
+        <v>-0.007992948821641387</v>
       </c>
       <c r="D77">
-        <v>-0.045747351061229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1127467763892189</v>
+      </c>
+      <c r="E77">
+        <v>-0.03850089908347947</v>
+      </c>
+      <c r="F77">
+        <v>0.03240568587890624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.06013415101009843</v>
+        <v>0.1002703472665366</v>
       </c>
       <c r="C78">
-        <v>-0.1427215110882883</v>
+        <v>-0.03916741473142528</v>
       </c>
       <c r="D78">
-        <v>0.0124906521019023</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1166020848027393</v>
+      </c>
+      <c r="E78">
+        <v>-0.0738066355948731</v>
+      </c>
+      <c r="F78">
+        <v>0.04486211155742309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03991064810484854</v>
+        <v>0.1645520493652239</v>
       </c>
       <c r="C79">
-        <v>-0.1434495253684515</v>
+        <v>-0.02218515239395472</v>
       </c>
       <c r="D79">
-        <v>0.02711667138233066</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01499046456613391</v>
+      </c>
+      <c r="E79">
+        <v>-0.04607537707406367</v>
+      </c>
+      <c r="F79">
+        <v>0.01060974801703915</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.01184959306599579</v>
+        <v>0.08259667436403922</v>
       </c>
       <c r="C80">
-        <v>-0.08437447841199806</v>
+        <v>0.0009718300611143117</v>
       </c>
       <c r="D80">
-        <v>0.005262546036578068</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05650462322848104</v>
+      </c>
+      <c r="E80">
+        <v>-0.03672019819970734</v>
+      </c>
+      <c r="F80">
+        <v>-0.02353262963186225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04677533844928238</v>
+        <v>0.1214091902437509</v>
       </c>
       <c r="C81">
-        <v>-0.132670876405901</v>
+        <v>-0.03152831275813675</v>
       </c>
       <c r="D81">
-        <v>0.0160147257860554</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01596170867336376</v>
+      </c>
+      <c r="E81">
+        <v>-0.0577308853228415</v>
+      </c>
+      <c r="F81">
+        <v>0.01610859243355143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.04271014005723126</v>
+        <v>0.1658821004724537</v>
       </c>
       <c r="C82">
-        <v>-0.1639043700828661</v>
+        <v>-0.02392030296099171</v>
       </c>
       <c r="D82">
-        <v>0.01749658147457837</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004495607979680168</v>
+      </c>
+      <c r="E82">
+        <v>-0.02853962229285525</v>
+      </c>
+      <c r="F82">
+        <v>0.0798923383767865</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01812008486160383</v>
+        <v>0.05996147518985784</v>
       </c>
       <c r="C83">
-        <v>-0.06601850812495347</v>
+        <v>-0.002762915034448225</v>
       </c>
       <c r="D83">
-        <v>-0.008044330679634627</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05129163511629917</v>
+      </c>
+      <c r="E83">
+        <v>-0.00528326004337198</v>
+      </c>
+      <c r="F83">
+        <v>-0.0316406984451898</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02725674698065429</v>
+        <v>0.05878501073978035</v>
       </c>
       <c r="C84">
-        <v>-0.07717100850066248</v>
+        <v>-0.01086726603164148</v>
       </c>
       <c r="D84">
-        <v>-0.03260914324653402</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0637617896256597</v>
+      </c>
+      <c r="E84">
+        <v>-0.006372069698148181</v>
+      </c>
+      <c r="F84">
+        <v>0.004139659103990362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.04223762255822658</v>
+        <v>0.1364607904848572</v>
       </c>
       <c r="C85">
-        <v>-0.1207454327600315</v>
+        <v>-0.02744035294849023</v>
       </c>
       <c r="D85">
-        <v>0.01483313764592503</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01120240724178658</v>
+      </c>
+      <c r="E85">
+        <v>-0.03873353305529363</v>
+      </c>
+      <c r="F85">
+        <v>0.04465086295561637</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0117238772734706</v>
+        <v>0.09422015007342521</v>
       </c>
       <c r="C86">
-        <v>-0.08467722313888078</v>
+        <v>0.006489586446760506</v>
       </c>
       <c r="D86">
-        <v>0.1638451877773246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0417443761654492</v>
+      </c>
+      <c r="E86">
+        <v>-0.2132573914180749</v>
+      </c>
+      <c r="F86">
+        <v>-0.9082155635949892</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.04284520129972148</v>
+        <v>0.09682403032786442</v>
       </c>
       <c r="C87">
-        <v>-0.1090450446900674</v>
+        <v>-0.0194007203169045</v>
       </c>
       <c r="D87">
-        <v>-0.06009172080971274</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09665878827376631</v>
+      </c>
+      <c r="E87">
+        <v>0.05077430709975782</v>
+      </c>
+      <c r="F87">
+        <v>0.05394361059256668</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01471711149716529</v>
+        <v>0.06060754523465318</v>
       </c>
       <c r="C88">
-        <v>-0.05970990180511498</v>
+        <v>-0.002068374286257702</v>
       </c>
       <c r="D88">
-        <v>-0.00203643842152159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04954414836610264</v>
+      </c>
+      <c r="E88">
+        <v>-0.02447039138516474</v>
+      </c>
+      <c r="F88">
+        <v>0.01201007644881386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.004913033960928014</v>
+        <v>0.1342858674372494</v>
       </c>
       <c r="C89">
-        <v>-0.05773645154136688</v>
+        <v>-0.01310465016120673</v>
       </c>
       <c r="D89">
-        <v>0.2224438433509158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2506945533553809</v>
+      </c>
+      <c r="E89">
+        <v>0.09102333555791142</v>
+      </c>
+      <c r="F89">
+        <v>-0.008372217923037472</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.02250734336247448</v>
+        <v>0.1511184554822838</v>
       </c>
       <c r="C90">
-        <v>-0.04663843978786946</v>
+        <v>-0.03197364085014702</v>
       </c>
       <c r="D90">
-        <v>0.2005640699777511</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2696179683525585</v>
+      </c>
+      <c r="E90">
+        <v>0.1123960053043613</v>
+      </c>
+      <c r="F90">
+        <v>-0.001710591793780271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02601120456144364</v>
+        <v>0.1203981389338863</v>
       </c>
       <c r="C91">
-        <v>-0.09853320535026905</v>
+        <v>-0.01867000600944302</v>
       </c>
       <c r="D91">
-        <v>0.01543543090177303</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01271648761809826</v>
+      </c>
+      <c r="E91">
+        <v>-0.0564341114364993</v>
+      </c>
+      <c r="F91">
+        <v>-0.00289829281733469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.008581805697529463</v>
+        <v>0.1478104494588678</v>
       </c>
       <c r="C92">
-        <v>-0.06315714920047075</v>
+        <v>-0.0235579461041883</v>
       </c>
       <c r="D92">
-        <v>0.2200642309954874</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2914304122083993</v>
+      </c>
+      <c r="E92">
+        <v>0.1007843561384702</v>
+      </c>
+      <c r="F92">
+        <v>-0.01335499491227496</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01893809899752345</v>
+        <v>0.1524817445122418</v>
       </c>
       <c r="C93">
-        <v>-0.05615971140874985</v>
+        <v>-0.02776571459933105</v>
       </c>
       <c r="D93">
-        <v>0.2252606720318752</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.268845213958145</v>
+      </c>
+      <c r="E93">
+        <v>0.07730919939079453</v>
+      </c>
+      <c r="F93">
+        <v>0.00282334976622837</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04388857481370115</v>
+        <v>0.1303668141647585</v>
       </c>
       <c r="C94">
-        <v>-0.1467715464398897</v>
+        <v>-0.0243760179445722</v>
       </c>
       <c r="D94">
-        <v>0.0109783604979282</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04325626846723128</v>
+      </c>
+      <c r="E94">
+        <v>-0.05802462188050777</v>
+      </c>
+      <c r="F94">
+        <v>0.03574133151222057</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02891938916004816</v>
+        <v>0.1274633583718527</v>
       </c>
       <c r="C95">
-        <v>-0.1406207405261046</v>
+        <v>-0.003576604961568732</v>
       </c>
       <c r="D95">
-        <v>-0.02210497335077326</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09094317689957336</v>
+      </c>
+      <c r="E95">
+        <v>-0.04586120470853088</v>
+      </c>
+      <c r="F95">
+        <v>-0.007055505049394091</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9688513979114295</v>
+        <v>0.1048415054523496</v>
       </c>
       <c r="C96">
-        <v>-0.2290020967407457</v>
+        <v>0.9876689659555626</v>
       </c>
       <c r="D96">
-        <v>0.02511312789402258</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04799690560435596</v>
+      </c>
+      <c r="E96">
+        <v>-0.05542150662056564</v>
+      </c>
+      <c r="F96">
+        <v>0.04228668672306767</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.007458281498907795</v>
+        <v>0.1928077328517235</v>
       </c>
       <c r="C97">
-        <v>-0.1546986366886639</v>
+        <v>0.007551029558621835</v>
       </c>
       <c r="D97">
-        <v>0.06023671327524417</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01761085717319776</v>
+      </c>
+      <c r="E97">
+        <v>-0.01856269835549732</v>
+      </c>
+      <c r="F97">
+        <v>-0.09032630902769431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02969656191300026</v>
+        <v>0.2044728058948609</v>
       </c>
       <c r="C98">
-        <v>-0.1968906941031754</v>
+        <v>-0.006823808442786382</v>
       </c>
       <c r="D98">
-        <v>0.01144061506166357</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01447862209894601</v>
+      </c>
+      <c r="E98">
+        <v>0.08325861609470707</v>
+      </c>
+      <c r="F98">
+        <v>-0.09442167143154798</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.00578696312005238</v>
+        <v>0.05567381538606352</v>
       </c>
       <c r="C99">
-        <v>-0.06216094738625949</v>
+        <v>0.004949361553941007</v>
       </c>
       <c r="D99">
-        <v>0.007110263115050885</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03969505087323978</v>
+      </c>
+      <c r="E99">
+        <v>-0.02300095994425161</v>
+      </c>
+      <c r="F99">
+        <v>0.001305993055200044</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.006753942791691015</v>
+        <v>0.125196835827153</v>
       </c>
       <c r="C100">
-        <v>-0.1715886125365823</v>
+        <v>0.05482454510280069</v>
       </c>
       <c r="D100">
-        <v>-0.7530227785739703</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3433064615892508</v>
+      </c>
+      <c r="E100">
+        <v>0.8895530222984926</v>
+      </c>
+      <c r="F100">
+        <v>-0.1417627159322591</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01369394234997676</v>
+        <v>0.02771398573206941</v>
       </c>
       <c r="C101">
-        <v>-0.02782593025510187</v>
+        <v>-0.008135488282361943</v>
       </c>
       <c r="D101">
-        <v>0.005860737886294079</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03164308807490246</v>
+      </c>
+      <c r="E101">
+        <v>-0.01072636097770924</v>
+      </c>
+      <c r="F101">
+        <v>-0.01257588085390986</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
